--- a/DatasetsDescription/DatasetsDescription_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False.xlsx
+++ b/DatasetsDescription/DatasetsDescription_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False.xlsx
@@ -31,7 +31,7 @@
     <t>d. onset</t>
   </si>
   <si>
-    <t>CCI&lt;3</t>
+    <t>CCI&lt;2</t>
   </si>
   <si>
     <t>OTI+death</t>
@@ -109,13 +109,13 @@
     <t>8(5-9)</t>
   </si>
   <si>
-    <t>158(39.0%)</t>
-  </si>
-  <si>
-    <t>71(42.3%)</t>
-  </si>
-  <si>
-    <t>126(40.9%)</t>
+    <t>87(21.5%)</t>
+  </si>
+  <si>
+    <t>41(24.4%)</t>
+  </si>
+  <si>
+    <t>69(22.4%)</t>
   </si>
   <si>
     <t>109(26.9%)</t>
